--- a/src/test/resources/scmtestdata.xlsx
+++ b/src/test/resources/scmtestdata.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C553FE-48EB-431F-ACA8-5C8A091DEBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCC79BF-B3FE-4B98-8C95-E22B7A619698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="5520" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product_addproducts" sheetId="1" r:id="rId1"/>
-    <sheet name="OrderSorting" sheetId="2" r:id="rId2"/>
-    <sheet name="editprofile" sheetId="3" r:id="rId3"/>
-    <sheet name="practice" sheetId="4" r:id="rId4"/>
+    <sheet name="retailer" sheetId="5" r:id="rId2"/>
+    <sheet name="OrderSorting" sheetId="2" r:id="rId3"/>
+    <sheet name="editprofile" sheetId="3" r:id="rId4"/>
+    <sheet name="practice" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Testcase name</t>
   </si>
@@ -75,6 +76,33 @@
   </si>
   <si>
     <t>admin1</t>
+  </si>
+  <si>
+    <t>newusername</t>
+  </si>
+  <si>
+    <t>newpassword</t>
+  </si>
+  <si>
+    <t>shaan</t>
+  </si>
+  <si>
+    <t>areacodevalue</t>
+  </si>
+  <si>
+    <t>SRKJ (Sarkhej)</t>
+  </si>
+  <si>
+    <t>VSTR (Vastrapur)</t>
+  </si>
+  <si>
+    <t>MNGR (Maninagar)</t>
+  </si>
+  <si>
+    <t>NRANIP (New Ranip)</t>
+  </si>
+  <si>
+    <t>VJLP (Vejalpur)</t>
   </si>
 </sst>
 </file>
@@ -598,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -649,6 +677,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E04F37-BEEF-4325-A778-23CB9E4214AF}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -660,7 +752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -720,7 +812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
